--- a/aoiConditions/train2Block1Test.xlsx
+++ b/aoiConditions/train2Block1Test.xlsx
@@ -563,7 +563,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>trainingaudio/16_kotapi2.wav</t>
+          <t>trainingaudio/16_kokapi2.wav</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -637,7 +637,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>trainingaudio/16_kotapi2.wav</t>
+          <t>trainingaudio/16_kokapi2.wav</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">

--- a/aoiConditions/train2Block1Test.xlsx
+++ b/aoiConditions/train2Block1Test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>audioTrue</t>
   </si>
@@ -34,58 +34,16 @@
     <t>falsePos</t>
   </si>
   <si>
-    <t>trainingaudio/26_kapako1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/03_kikita3.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/12_pokika3.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/10_tokiti1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/20_tatito1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/04_kitoti2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/16_kokapi2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/05_titopo2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/15_kopota3.wav</t>
-  </si>
-  <si>
-    <t>pngimages/26_pineapple.png</t>
-  </si>
-  <si>
-    <t>pngimages/03_box.png</t>
-  </si>
-  <si>
-    <t>pngimages/12_pie.png</t>
-  </si>
-  <si>
-    <t>pngimages/10_backpack.png</t>
-  </si>
-  <si>
-    <t>pngimages/20_pizza.png</t>
-  </si>
-  <si>
-    <t>pngimages/04_ladder.png</t>
-  </si>
-  <si>
-    <t>pngimages/16_icecream.png</t>
-  </si>
-  <si>
-    <t>pngimages/05_megaphone.png</t>
-  </si>
-  <si>
-    <t>pngimages/15_barrel.png</t>
+    <t>trainingaudio/24_takopa1.wav</t>
+  </si>
+  <si>
+    <t>pngimages/24_banana.png</t>
+  </si>
+  <si>
+    <t>trainingaudio/07_pitapi2.wav</t>
+  </si>
+  <si>
+    <t>pngimages/07_suitcase.png</t>
   </si>
 </sst>
 </file>
@@ -443,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -474,179 +432,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="E2">
         <v>-0.5</v>
       </c>
       <c r="F2">
         <v>0.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3">
-        <v>-0.5</v>
-      </c>
-      <c r="F3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4">
-        <v>0.5</v>
-      </c>
-      <c r="F4">
-        <v>-0.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5">
-        <v>0.5</v>
-      </c>
-      <c r="F5">
-        <v>-0.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6">
-        <v>-0.5</v>
-      </c>
-      <c r="F6">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7">
-        <v>-0.5</v>
-      </c>
-      <c r="F7">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8">
-        <v>-0.5</v>
-      </c>
-      <c r="F8">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9">
-        <v>-0.5</v>
-      </c>
-      <c r="F9">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10">
-        <v>0.5</v>
-      </c>
-      <c r="F10">
-        <v>-0.5</v>
       </c>
     </row>
   </sheetData>

--- a/aoiConditions/train2Block1Test.xlsx
+++ b/aoiConditions/train2Block1Test.xlsx
@@ -34,10 +34,10 @@
     <t>falsePos</t>
   </si>
   <si>
-    <t>trainingaudio/24_takopa1.wav</t>
-  </si>
-  <si>
-    <t>pngimages/24_banana.png</t>
+    <t>trainingaudio/17_kotako2.wav</t>
+  </si>
+  <si>
+    <t>pngimages/17_cracker.png</t>
   </si>
   <si>
     <t>trainingaudio/07_pitapi2.wav</t>
@@ -441,10 +441,10 @@
         <v>9</v>
       </c>
       <c r="E2">
+        <v>0.5</v>
+      </c>
+      <c r="F2">
         <v>-0.5</v>
-      </c>
-      <c r="F2">
-        <v>0.5</v>
       </c>
     </row>
   </sheetData>
